--- a/plantilla_tipo_descripciones.xlsx
+++ b/plantilla_tipo_descripciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B77AE2C-305F-4F67-8C8E-3AA28678ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D92363-BE4B-4C5D-BC15-C93900E23A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SKU</t>
   </si>
@@ -78,13 +78,16 @@
   </si>
   <si>
     <t>Imagen Logo</t>
+  </si>
+  <si>
+    <t>VideoYouTube</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,17 +153,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,28 +467,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="7" width="21.7265625" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
-    <col min="10" max="10" width="23.36328125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" customWidth="1"/>
-    <col min="15" max="15" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="8" width="21.7265625" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.26953125" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,61 +506,55 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J9" s="1"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="L2:O1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="M2:P2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Cruelty Free,Libre de Pesticidas,No Probado en Animales,No Toxico,Probado Lab,Sin Aceite,Sin Parabenos,Sin Sulfatos,Vegano"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona Negro, Azul o Rosa" promptTitle="Color del Título" prompt="Selecciona un color válido" sqref="K2:K1000" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona Negro, Azul o Rosa" promptTitle="Color del Título" prompt="Selecciona un color válido" sqref="L2" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Negro,Azul,Rosa"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="F1:F1048576" xr:uid="{8D80BF21-BF4E-4299-963A-559A3BB39A1A}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/plantilla_tipo_descripciones.xlsx
+++ b/plantilla_tipo_descripciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\5\INDEX CON LOGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D92363-BE4B-4C5D-BC15-C93900E23A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7929054F-EDB9-4A90-9A00-EC720748D165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SKU</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Imagen Logo</t>
-  </si>
-  <si>
-    <t>VideoYouTube</t>
   </si>
 </sst>
 </file>
@@ -467,29 +464,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="8" width="21.7265625" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" customWidth="1"/>
-    <col min="11" max="11" width="23.36328125" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" customWidth="1"/>
-    <col min="13" max="13" width="17.08984375" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="16.26953125" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="17.08984375" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,55 +503,50 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L1" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F2" s="5"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="M2:P2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="L2:O2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Cruelty Free,Libre de Pesticidas,No Probado en Animales,No Toxico,Probado Lab,Sin Aceite,Sin Parabenos,Sin Sulfatos,Vegano"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona Negro, Azul o Rosa" promptTitle="Color del Título" prompt="Selecciona un color válido" sqref="L2" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona Negro, Azul o Rosa" promptTitle="Color del Título" prompt="Selecciona un color válido" sqref="K2" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Negro,Azul,Rosa"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="F1:F1048576" xr:uid="{8D80BF21-BF4E-4299-963A-559A3BB39A1A}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/plantilla_tipo_descripciones.xlsx
+++ b/plantilla_tipo_descripciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\5\INDEX CON LOGO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7929054F-EDB9-4A90-9A00-EC720748D165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D92363-BE4B-4C5D-BC15-C93900E23A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SKU</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Imagen Logo</t>
+  </si>
+  <si>
+    <t>VideoYouTube</t>
   </si>
 </sst>
 </file>
@@ -464,29 +467,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
-    <col min="10" max="10" width="23.36328125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" customWidth="1"/>
-    <col min="15" max="15" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="8" width="21.7265625" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.26953125" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,50 +506,55 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H2" s="5"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="L2:O2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="M2:P2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Cruelty Free,Libre de Pesticidas,No Probado en Animales,No Toxico,Probado Lab,Sin Aceite,Sin Parabenos,Sin Sulfatos,Vegano"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona Negro, Azul o Rosa" promptTitle="Color del Título" prompt="Selecciona un color válido" sqref="K2" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona Negro, Azul o Rosa" promptTitle="Color del Título" prompt="Selecciona un color válido" sqref="L2" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Negro,Azul,Rosa"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="F1:F1048576" xr:uid="{8D80BF21-BF4E-4299-963A-559A3BB39A1A}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
